--- a/part_Extraction/pythonProject/test.xlsx
+++ b/part_Extraction/pythonProject/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlgus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlgus\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>반지름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -396,10 +396,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>49564.377999999997</v>
+        <v>49434</v>
       </c>
       <c r="C2">
-        <v>49741.356</v>
+        <v>49741</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -410,10 +410,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>49434.377999999997</v>
+        <v>49546</v>
       </c>
       <c r="C3">
-        <v>49741.356</v>
+        <v>49741</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -424,10 +424,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>49564.377999999997</v>
+        <v>49546</v>
       </c>
       <c r="C4">
-        <v>49870.356</v>
+        <v>49870</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>51564.377999999997</v>
+        <v>49434</v>
       </c>
       <c r="C5">
-        <v>49741.356</v>
+        <v>49870</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -458,6 +458,174 @@
         <v>49805.856</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>39434</v>
+      </c>
+      <c r="C8">
+        <v>39620</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>39546</v>
+      </c>
+      <c r="C9">
+        <v>39620</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39546</v>
+      </c>
+      <c r="C10">
+        <v>39870</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>39434</v>
+      </c>
+      <c r="C11">
+        <v>39870</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>37.5</v>
+      </c>
+      <c r="B12">
+        <v>51499.377999999997</v>
+      </c>
+      <c r="C12">
+        <v>49805.856</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>29434</v>
+      </c>
+      <c r="C14">
+        <v>29661</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>29546</v>
+      </c>
+      <c r="C15">
+        <v>29661</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>29546</v>
+      </c>
+      <c r="C16">
+        <v>29870</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>29434</v>
+      </c>
+      <c r="C17">
+        <v>29870</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>37.5</v>
+      </c>
+      <c r="B18">
+        <v>51499.377999999997</v>
+      </c>
+      <c r="C18">
+        <v>49805.856</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
